--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43133,6 +43133,41 @@
         <v>238700</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>157000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43168,6 +43168,41 @@
         <v>157000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1606900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43203,6 +43203,41 @@
         <v>1606900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1576800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43238,6 +43238,41 @@
         <v>1576800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>112200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43273,6 +43273,41 @@
         <v>112200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1824800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43308,6 +43308,41 @@
         <v>1824800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>445300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43343,6 +43343,41 @@
         <v>445300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>210200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43378,6 +43378,41 @@
         <v>210200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>196400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43413,6 +43413,41 @@
         <v>196400</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>409500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43448,6 +43448,41 @@
         <v>409500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>803100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43483,6 +43483,41 @@
         <v>803100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>702700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43518,6 +43518,41 @@
         <v>702700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>778000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43553,6 +43553,76 @@
         <v>778000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>883700</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1159600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43623,6 +43623,76 @@
         <v>1159600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>675900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>595100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43693,6 +43693,41 @@
         <v>595100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1161600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43728,6 +43728,41 @@
         <v>1161600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>305900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43763,6 +43763,41 @@
         <v>305900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>2090900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43798,6 +43798,41 @@
         <v>2090900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1152800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43833,6 +43833,76 @@
         <v>1152800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>3004400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1464100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43903,6 +43903,41 @@
         <v>1464100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1267300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43938,6 +43938,41 @@
         <v>1267300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1169700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2212"/>
+  <dimension ref="A1:I2213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77958,6 +77958,41 @@
         <v>1169700</v>
       </c>
     </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2213" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2213" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2213" t="n">
+        <v>598400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2213"/>
+  <dimension ref="A1:I2214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77993,6 +77993,41 @@
         <v>598400</v>
       </c>
     </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2214" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H2214" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2214" t="n">
+        <v>785800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2214"/>
+  <dimension ref="A1:I2215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78028,6 +78028,41 @@
         <v>785800</v>
       </c>
     </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2215" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2215" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2215" t="n">
+        <v>539600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2215"/>
+  <dimension ref="A1:I2216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78063,6 +78063,41 @@
         <v>539600</v>
       </c>
     </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2216" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H2216" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I2216" t="n">
+        <v>1548000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2216"/>
+  <dimension ref="A1:I2217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78098,6 +78098,41 @@
         <v>1548000</v>
       </c>
     </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2217" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G2217" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H2217" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I2217" t="n">
+        <v>1293600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2217"/>
+  <dimension ref="A1:I2218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78133,6 +78133,41 @@
         <v>1293600</v>
       </c>
     </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2218" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2218" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2218" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2218" t="n">
+        <v>928600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2218"/>
+  <dimension ref="A1:I2219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78168,6 +78168,41 @@
         <v>928600</v>
       </c>
     </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2219" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G2219" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H2219" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I2219" t="n">
+        <v>799100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2219"/>
+  <dimension ref="A1:I2220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78203,6 +78203,41 @@
         <v>799100</v>
       </c>
     </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2220" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2220" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2220" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I2220" t="n">
+        <v>1292800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2220"/>
+  <dimension ref="A1:I2221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78238,6 +78238,41 @@
         <v>1292800</v>
       </c>
     </row>
+    <row r="2221">
+      <c r="A2221" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2221" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2221" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2221" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H2221" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I2221" t="n">
+        <v>1133600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2221"/>
+  <dimension ref="A1:I2222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78273,6 +78273,41 @@
         <v>1133600</v>
       </c>
     </row>
+    <row r="2222">
+      <c r="A2222" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2222" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2222" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G2222" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H2222" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2222" t="n">
+        <v>1800400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2222"/>
+  <dimension ref="A1:I2223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78308,6 +78308,41 @@
         <v>1800400</v>
       </c>
     </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2223" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H2223" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I2223" t="n">
+        <v>2815500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2223"/>
+  <dimension ref="A1:I2224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78343,6 +78343,41 @@
         <v>2815500</v>
       </c>
     </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2224" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H2224" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2224" t="n">
+        <v>1845500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2224"/>
+  <dimension ref="A1:I2225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78378,6 +78378,41 @@
         <v>1845500</v>
       </c>
     </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2225" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I2225" t="n">
+        <v>1849200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2225"/>
+  <dimension ref="A1:I2226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78413,6 +78413,41 @@
         <v>1849200</v>
       </c>
     </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2226" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I2226" t="n">
+        <v>2376800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2226"/>
+  <dimension ref="A1:I2227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78448,6 +78448,41 @@
         <v>2376800</v>
       </c>
     </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2227" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>741800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2227"/>
+  <dimension ref="A1:I2228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78483,6 +78483,41 @@
         <v>741800</v>
       </c>
     </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2228" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H2228" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2228" t="n">
+        <v>976500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2228"/>
+  <dimension ref="A1:I2229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78518,6 +78518,41 @@
         <v>976500</v>
       </c>
     </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2229" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H2229" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I2229" t="n">
+        <v>2567000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2229"/>
+  <dimension ref="A1:I2230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78553,6 +78553,41 @@
         <v>2567000</v>
       </c>
     </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2230" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I2230" t="n">
+        <v>786700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2230"/>
+  <dimension ref="A1:I2231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78588,6 +78588,41 @@
         <v>786700</v>
       </c>
     </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2231" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H2231" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I2231" t="n">
+        <v>1632100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2231"/>
+  <dimension ref="A1:I2232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78623,6 +78623,41 @@
         <v>1632100</v>
       </c>
     </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2232" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H2232" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I2232" t="n">
+        <v>1316200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2232"/>
+  <dimension ref="A1:I2233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78658,6 +78658,41 @@
         <v>1316200</v>
       </c>
     </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2233" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I2233" t="n">
+        <v>630800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2233"/>
+  <dimension ref="A1:I2234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78693,6 +78693,41 @@
         <v>630800</v>
       </c>
     </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2234" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I2234" t="n">
+        <v>2044800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2234"/>
+  <dimension ref="A1:I2235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78728,6 +78728,41 @@
         <v>2044800</v>
       </c>
     </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2235" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I2235" t="n">
+        <v>939900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2235"/>
+  <dimension ref="A1:I2236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78763,6 +78763,41 @@
         <v>939900</v>
       </c>
     </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2236" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>1711600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2236"/>
+  <dimension ref="A1:I2237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78798,6 +78798,41 @@
         <v>1711600</v>
       </c>
     </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2237" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>2234000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2237"/>
+  <dimension ref="A1:I2239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78833,6 +78833,76 @@
         <v>2234000</v>
       </c>
     </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2238" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I2238" t="n">
+        <v>853000</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I2239" t="n">
+        <v>800500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2239"/>
+  <dimension ref="A1:I2240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78903,6 +78903,41 @@
         <v>800500</v>
       </c>
     </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2240" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2240" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I2240" t="n">
+        <v>2918700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2240"/>
+  <dimension ref="A1:I2243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78938,6 +78938,111 @@
         <v>2918700</v>
       </c>
     </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2241" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2241" t="n">
+        <v>996900</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H2242" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I2242" t="n">
+        <v>183200</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H2243" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I2243" t="n">
+        <v>191600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2243"/>
+  <dimension ref="A1:I2244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79043,6 +79043,41 @@
         <v>191600</v>
       </c>
     </row>
+    <row r="2244">
+      <c r="A2244" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2244" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G2244" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H2244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2244" t="n">
+        <v>123200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2244"/>
+  <dimension ref="A1:I2245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79078,6 +79078,41 @@
         <v>123200</v>
       </c>
     </row>
+    <row r="2245">
+      <c r="A2245" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H2245" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I2245" t="n">
+        <v>1034300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0151.xlsx
+++ b/data/0151.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2245"/>
+  <dimension ref="A1:I2248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79113,6 +79113,111 @@
         <v>1034300</v>
       </c>
     </row>
+    <row r="2246">
+      <c r="A2246" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2246" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H2246" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I2246" t="n">
+        <v>1066600</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2247" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2247" t="n">
+        <v>884500</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>KGB</t>
+        </is>
+      </c>
+      <c r="E2248" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G2248" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H2248" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I2248" t="n">
+        <v>660400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
